--- a/biology/Zoologie/Clarkometra_elegans/Clarkometra_elegans.xlsx
+++ b/biology/Zoologie/Clarkometra_elegans/Clarkometra_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clarkometra
 Clarkometra elegans, unique représentant du genre Clarkometra, est une espèce de crinoïdes de la famille des Colobometridae (ordre des Comatulida).
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette crinoïde se rencontre du Sud-Ouest de Mindanao (Philippines) jusqu'aux îles Bonin (Japon). Elle est présente entre 72 à 80 m de profondeur.
 </t>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Clarkometra et l'espèce Clarkometra elegans ont été décrits en 1922 par le zoologiste suédois Torsten Gislén (d) (1893-1954)[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Clarkometra et l'espèce Clarkometra elegans ont été décrits en 1922 par le zoologiste suédois Torsten Gislén (d) (1893-1954),.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Torsten Gislén, « The crinoids from Dr. S. Bock's expedition to Japan 1914 », Nova Acta Regiae Societatis Scientiarum Upsaliensis, Suède, 4e série, vol. 5, no 6,‎ 1922, p. 1-183 (ISSN 0029-5000, lire en ligne, consulté le 9 février 2024).</t>
         </is>
